--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B6DBD-EF55-4F12-B726-0C2DF7DEBDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCEF29-0B6C-48D7-8897-694D26F5948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11490" windowHeight="8625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="1035" windowWidth="10230" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -245,11 +245,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_mail</t>
+    <t>安藤健太</t>
+    <rPh sb="0" eb="4">
+      <t>アンドウケンタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康管理アプリ</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウカンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1071,7 +1077,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,7 +1106,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -1108,11 +1116,15 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -1307,35 +1319,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_type int ,</v>
+        <v xml:space="preserve">user_type int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1598,5 +1600,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCEF29-0B6C-48D7-8897-694D26F5948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55558008-C8E5-4B9A-A183-0B1CA75A1450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="1035" windowWidth="10230" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1620" windowWidth="11490" windowHeight="8625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="m_user" sheetId="2" r:id="rId2"/>
+    <sheet name="user_login" sheetId="2" r:id="rId2"/>
+    <sheet name="admin_login" sheetId="3" r:id="rId3"/>
+    <sheet name="shindan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -179,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,17 +198,6 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ氏</t>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_l_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,23 +208,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_f_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>user_pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -256,6 +231,82 @@
     <rPh sb="0" eb="4">
       <t>ケンコウカンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者ログイン</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ログイン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断入力出力</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shindan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問番号</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問事項</t>
+  </si>
+  <si>
+    <t>question</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +334,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -345,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +428,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J28"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -799,18 +861,30 @@
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -819,7 +893,9 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -828,7 +904,9 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -837,7 +915,9 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1076,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1117,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1193,29 +1273,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1223,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1239,9 +1321,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20),</v>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1249,13 +1331,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1266,60 +1348,44 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_f_name varchar (20),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_pw varchar (20)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_type int </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1602,4 +1668,1028 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>admin_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>admin_pw varchar (20)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52CAF3C-5491-4440-B9C7-AD7D64E247C7}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">question  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55558008-C8E5-4B9A-A183-0B1CA75A1450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC024A4-C022-47CD-9967-21530843AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1620" windowWidth="11490" windowHeight="8625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="855" windowWidth="11490" windowHeight="8625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -234,13 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受講者ログイン</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_login</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,6 +300,10 @@
   </si>
   <si>
     <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,7 +773,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -862,10 +859,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -877,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1175,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1308,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -1794,7 +1791,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -1826,7 +1823,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -1852,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -2193,7 +2190,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2309,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -2341,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC024A4-C022-47CD-9967-21530843AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F127203-0CC1-43D7-93B0-AAB8BF361657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="855" windowWidth="11490" windowHeight="8625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user_login" sheetId="2" r:id="rId2"/>
     <sheet name="admin_login" sheetId="3" r:id="rId3"/>
-    <sheet name="shindan" sheetId="4" r:id="rId4"/>
+    <sheet name="shindan " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -265,45 +265,240 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断入力出力</t>
+    <t>shindan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result10</t>
+  </si>
+  <si>
+    <t>診断結果番号10</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ニュ</t>
+      <t>ケッカ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shindan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問番号</t>
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result9</t>
+  </si>
+  <si>
+    <t>診断結果番号9</t>
     <rPh sb="0" eb="2">
-      <t>シツモン</t>
+      <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問事項</t>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講者ログイン</t>
+    <t>result8</t>
+  </si>
+  <si>
+    <t>診断結果番号8</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result7</t>
+  </si>
+  <si>
+    <t>診断結果番号7</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result6</t>
+  </si>
+  <si>
+    <t>診断結果番号6</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result5</t>
+  </si>
+  <si>
+    <t>診断結果番号5</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result4</t>
+  </si>
+  <si>
+    <t>診断結果番号4</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result3</t>
+  </si>
+  <si>
+    <t>診断結果番号3</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果番号2</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果番号1</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇、△、×のいずれかが入る</t>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <rPh sb="0" eb="4">
+      <t>シンダンケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sindan_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断ID</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -401,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>33</v>
@@ -874,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -890,9 +1088,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -901,9 +1097,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -912,9 +1106,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1172,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2186,11 +2378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52CAF3C-5491-4440-B9C7-AD7D64E247C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2811EE88-C79C-43B2-939B-D8D728D381F8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2222,8 +2414,6 @@
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -2238,8 +2428,6 @@
       <c r="E3" s="7">
         <v>44351</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -2250,8 +2438,6 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2262,8 +2448,9 @@
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2296,7 +2483,7 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table  (</v>
       </c>
@@ -2306,16 +2493,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
@@ -2338,13 +2525,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2359,10 +2550,18 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2370,35 +2569,53 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">question  </v>
+        <v>date date (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_id int (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2406,205 +2623,293 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_comment varchar (300),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>300</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>admin_comment varchar (300),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>result1 int (5),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>result2 int (5),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>result3 int (5),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>result4 int (5),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>result5 int (5),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>result6 int (5),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v>result7 int (5),</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v>result8 int (5),</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v>result9 int (5),</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v>result10 int (5)</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2621,7 +2926,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2639,7 +2944,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2657,7 +2962,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2675,7 +2980,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F127203-0CC1-43D7-93B0-AAB8BF361657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05E25A-4550-421D-8B61-EB444B4E6CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user_login" sheetId="2" r:id="rId2"/>
     <sheet name="admin_login" sheetId="3" r:id="rId3"/>
-    <sheet name="shindan " sheetId="5" r:id="rId4"/>
+    <sheet name="question" sheetId="8" r:id="rId4"/>
+    <sheet name="result" sheetId="10" r:id="rId5"/>
+    <sheet name="comment" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="101">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -451,13 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇、△、×のいずれかが入る</t>
-    <rPh sb="11" eb="12">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,10 +490,182 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断</t>
+    <t>三浦美帆</t>
+    <rPh sb="0" eb="4">
+      <t>ミウラミホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目結果</t>
+    <rPh sb="0" eb="4">
+      <t>シンダンコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目1</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目2</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目3</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目4</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目5</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目6</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目7</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目8</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目9</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question3</t>
+  </si>
+  <si>
+    <t>question4</t>
+  </si>
+  <si>
+    <t>question5</t>
+  </si>
+  <si>
+    <t>question6</t>
+  </si>
+  <si>
+    <t>question7</t>
+  </si>
+  <si>
+    <t>question8</t>
+  </si>
+  <si>
+    <t>question9</t>
+  </si>
+  <si>
+    <t>診断項目10</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question10</t>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,9 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +1134,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -1086,7 +1250,9 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1095,7 +1261,9 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2378,11 +2546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2811EE88-C79C-43B2-939B-D8D728D381F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2412,8 +2580,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -2426,31 +2596,38 @@
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>44351</v>
-      </c>
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2483,9 +2660,9 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table question (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2493,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -2504,16 +2681,16 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2525,16 +2702,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2551,16 +2728,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2569,35 +2746,33 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>date date (10),</v>
+        <v>question1 varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
+      <c r="B13" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id int (10),</v>
+        <v>question2 varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2605,16 +2780,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2623,24 +2798,24 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_comment varchar (300),</v>
+        <v>question4 varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>63</v>
+      <c r="B15" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2648,8 +2823,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>admin_comment varchar (300),</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>question5 varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2657,16 +2832,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2674,25 +2849,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>result1 int (5),</v>
+        <f t="shared" si="0"/>
+        <v>question6 varchar (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2700,8 +2875,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>result2 int (5),</v>
+        <f t="shared" si="0"/>
+        <v>question7 varchar (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2709,16 +2884,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2726,25 +2901,25 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>result3 int (5),</v>
+        <f t="shared" si="0"/>
+        <v>question8 varchar (100),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
+      <c r="B19" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2752,8 +2927,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>result4 int (5),</v>
+        <f t="shared" si="0"/>
+        <v>question9 varchar (100),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2761,16 +2936,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2778,138 +2953,98 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>result5 int (5),</v>
+        <f t="shared" si="0"/>
+        <v>question10 varchar (100)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>result6 int (5),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>result7 int (5),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>result8 int (5),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v>result9 int (5),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v>result10 int (5)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2926,7 +3061,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2944,7 +3079,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2962,7 +3097,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2980,7 +3115,1137 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table result (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>date date (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id int (10),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>result1 int (5),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>result2 int (5),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>result3 int (5),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>result4 int (5),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>result5 int (5),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>result6 int (5),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>result7 int (5),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>result8 int (5),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>result9 int (5),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>result10 int (5)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table comment (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>300</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_comment varchar (300),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>admin_comment varchar (300)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05E25A-4550-421D-8B61-EB444B4E6CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A5645-B7F2-47D6-AD2F-23C1C21D8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shindan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受講者ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,16 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断項目結果</t>
-    <rPh sb="0" eb="4">
-      <t>シンダンコウモク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断項目</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -667,6 +653,19 @@
   <si>
     <t>result</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>33</v>
@@ -1236,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -1251,10 +1250,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1262,10 +1265,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1532,7 +1539,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2550,1200 +2557,6 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table question (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question1 varchar (100),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>question2 varchar (100),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>question4 varchar (100),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>question5 varchar (100),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>question6 varchar (100),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>question7 varchar (100),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>question8 varchar (100),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>question9 varchar (100),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>question10 varchar (100)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table result (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>date date (10),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id int (10),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>result1 int (5),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>result2 int (5),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>result3 int (5),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>result4 int (5),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>result5 int (5),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>result6 int (5),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>result7 int (5),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>result8 int (5),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>result9 int (5),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>result10 int (5)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3774,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3800,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3814,7 +2627,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3856,7 +2669,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table comment (</v>
+        <v>create table question (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3864,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -3895,17 +2708,17 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3922,10 +2735,1204 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question1 varchar (100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>question2 varchar (100),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>question4 varchar (100),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>question5 varchar (100),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>question6 varchar (100),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>question7 varchar (100),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>question8 varchar (100),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>question9 varchar (100),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>question10 varchar (100)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table result (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>date date (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id int (10),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>result1 int (5),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>result2 int (5),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>result3 int (5),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>result4 int (5),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>result5 int (5),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>result6 int (5),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>result7 int (5),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>result8 int (5),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>result9 int (5),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>result10 int (5)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table comment (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>300</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A5645-B7F2-47D6-AD2F-23C1C21D8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412687A-AA15-4DC5-8514-C56006DC851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,6 +662,18 @@
   </si>
   <si>
     <t>question</t>
+  </si>
+  <si>
+    <t>管理者ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1133,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1205,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1220,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1235,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1250,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1265,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1520,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1547,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1551,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1561,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1637,25 +1645,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1669,13 +1677,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1695,13 +1703,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2039,7 +2047,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2057,7 +2065,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2069,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2079,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2155,25 +2163,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2187,13 +2195,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2213,13 +2221,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2556,9 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2575,7 +2581,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2587,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2597,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2613,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2627,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2677,25 +2683,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2709,13 +2715,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2735,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2761,13 +2767,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2787,13 +2793,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -2813,13 +2819,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -2839,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -2865,13 +2871,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2891,13 +2897,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -2917,13 +2923,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
         <v>100</v>
@@ -2943,13 +2949,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -3142,9 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3161,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3173,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3183,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3199,7 +3203,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3213,7 +3217,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3263,23 +3267,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3293,13 +3297,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3319,13 +3323,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -3345,13 +3349,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -3371,13 +3375,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -3397,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -3423,13 +3427,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -3449,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -3475,13 +3479,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -3501,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -3527,13 +3531,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -3553,13 +3557,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -3579,13 +3583,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -3605,13 +3609,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
@@ -3750,9 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3769,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3781,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3791,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3807,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3821,7 +3823,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3871,25 +3873,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3903,13 +3905,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>300</v>
@@ -3929,13 +3931,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412687A-AA15-4DC5-8514-C56006DC851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919047CF-0718-4031-9C5B-235A97BB7763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -661,9 +661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question</t>
-  </si>
-  <si>
     <t>管理者ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,6 +671,9 @@
   <si>
     <t>診断結果</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_login</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,7 +1246,7 @@
         <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="J7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1596,7 +1596,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1639,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table user_login (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1667,9 +1669,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (12),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1693,9 +1695,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1720,8 +1722,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_pw varchar (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1737,10 +1739,6 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20)</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -2046,8 +2044,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table admin_login (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>admin_id varchar (12),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>admin_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>admin_pw varchar (20)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2077,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2093,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>44351</v>
+        <v>44354</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2102,7 +2616,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2630,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2673,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table question (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2163,16 +2681,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
@@ -2185,35 +2703,35 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>sindan_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
+      <c r="B11" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question1 varchar (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2221,16 +2739,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2238,153 +2756,213 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>admin_name varchar (20),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>question2 varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>admin_pw varchar (20)</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>question4 varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>question5 varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>question6 varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>question7 varchar (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>question8 varchar (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>question9 varchar (100),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>question10 varchar (100)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -2400,7 +2978,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2560,11 +3138,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2619,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2633,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2675,7 +3255,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table question (</v>
+        <v>create table result (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2697,17 +3277,15 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>sindan_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2715,25 +3293,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>date date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2741,16 +3319,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2758,25 +3336,25 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question1 varchar (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id int (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>78</v>
+      <c r="B13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2784,8 +3362,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>question2 varchar (100),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>result1 int (5),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2793,16 +3371,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2810,25 +3388,25 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>question4 varchar (100),</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>result2 int (5),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>80</v>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2836,8 +3414,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>question5 varchar (100),</v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>result3 int (5),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2845,16 +3423,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2862,25 +3440,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>question6 varchar (100),</v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>result4 int (5),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>82</v>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2888,8 +3466,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>question7 varchar (100),</v>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>result5 int (5),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2897,16 +3475,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -2914,25 +3492,25 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>question8 varchar (100),</v>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>result6 int (5),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>84</v>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2940,8 +3518,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>question9 varchar (100),</v>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>result7 int (5),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2949,16 +3527,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2966,63 +3544,83 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>question10 varchar (100)</v>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>result8 int (5),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v>result9 int (5),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v>result10 int (5)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -3038,613 +3636,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table result (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>date date (10),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id int (10),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>result1 int (5),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>result2 int (5),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>result3 int (5),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>result4 int (5),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>result5 int (5),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>result6 int (5),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>result7 int (5),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>result8 int (5),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>result9 int (5),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>result10 int (5)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3754,7 +3746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3895,9 +3889,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>sindan_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3921,9 +3915,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_comment varchar (300),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3948,8 +3942,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_comment varchar (300),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>admin_comment varchar (300)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3965,10 +3959,6 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>admin_comment varchar (300)</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919047CF-0718-4031-9C5B-235A97BB7763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D78F95-2C4F-47A4-8737-0790A3BFC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8790" yWindow="570" windowWidth="10065" windowHeight="9960" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -674,6 +674,71 @@
   </si>
   <si>
     <t>admin_login</t>
+  </si>
+  <si>
+    <t>診断項目11</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目12</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目13</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目14</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目15</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question11</t>
+  </si>
+  <si>
+    <t>question12</t>
+  </si>
+  <si>
+    <t>question13</t>
+  </si>
+  <si>
+    <t>question14</t>
+  </si>
+  <si>
+    <t>question15</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1206,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2560,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2782,7 +2847,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13:L19" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>question4 varchar (100),</v>
       </c>
     </row>
@@ -2808,7 +2873,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question5 varchar (100),</v>
       </c>
     </row>
@@ -2834,7 +2899,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question6 varchar (100),</v>
       </c>
     </row>
@@ -2860,7 +2925,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question7 varchar (100),</v>
       </c>
     </row>
@@ -2886,7 +2951,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question8 varchar (100),</v>
       </c>
     </row>
@@ -2912,7 +2977,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>question9 varchar (100),</v>
       </c>
     </row>
@@ -2938,8 +3003,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>question10 varchar (100)</v>
+        <f t="shared" si="0"/>
+        <v>question10 varchar (100),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2968,90 +3033,130 @@
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" ref="L15:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>question11 varchar (100),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>question12 varchar (100),</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>question13 varchar (100),</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>question14 varchar (100),</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v>question15 varchar (100)</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -3068,7 +3173,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3086,7 +3191,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3104,7 +3209,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3122,7 +3227,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3362,7 +3467,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13:L22" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>result1 int (5),</v>
       </c>
     </row>
@@ -3388,7 +3493,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result2 int (5),</v>
       </c>
     </row>
@@ -3414,7 +3519,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result3 int (5),</v>
       </c>
     </row>
@@ -3440,7 +3545,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result4 int (5),</v>
       </c>
     </row>
@@ -3466,7 +3571,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result5 int (5),</v>
       </c>
     </row>
@@ -3492,7 +3597,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result6 int (5),</v>
       </c>
     </row>
@@ -3518,7 +3623,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result7 int (5),</v>
       </c>
     </row>
@@ -3544,7 +3649,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result8 int (5),</v>
       </c>
     </row>
@@ -3570,7 +3675,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result9 int (5),</v>
       </c>
     </row>
@@ -3596,7 +3701,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>result10 int (5)</v>
       </c>
     </row>
@@ -3636,7 +3741,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L15:L29" si="0">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3654,7 +3759,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3672,7 +3777,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3690,7 +3795,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3708,7 +3813,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3726,7 +3831,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D78F95-2C4F-47A4-8737-0790A3BFC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88966D-EF20-4E29-9BEB-2ACD19AE9A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="570" windowWidth="10065" windowHeight="9960" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="510" windowWidth="14250" windowHeight="10080" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="113">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1206,8 +1206,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1718,10 +1718,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
@@ -1732,11 +1732,13 @@
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>user_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2109,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2234,10 +2236,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
@@ -2248,11 +2250,13 @@
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>admin_id varchar (12),</v>
+        <v>admin_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2625,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2766,7 +2770,9 @@
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3247,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3382,11 +3388,15 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3851,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3992,7 +4002,9 @@
       <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88966D-EF20-4E29-9BEB-2ACD19AE9A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74E69C-8131-44DB-A2EC-ED9FAD5520BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="510" windowWidth="14250" windowHeight="10080" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="345" windowWidth="14250" windowHeight="10080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user_login" sheetId="2" r:id="rId2"/>
     <sheet name="admin_login" sheetId="3" r:id="rId3"/>
-    <sheet name="question" sheetId="8" r:id="rId4"/>
-    <sheet name="result" sheetId="10" r:id="rId5"/>
-    <sheet name="comment" sheetId="12" r:id="rId6"/>
+    <sheet name="s_question" sheetId="8" r:id="rId4"/>
+    <sheet name="s_answer" sheetId="10" r:id="rId5"/>
+    <sheet name="s_result" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -267,168 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>result10</t>
-  </si>
-  <si>
-    <t>診断結果番号10</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result9</t>
-  </si>
-  <si>
-    <t>診断結果番号9</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result8</t>
-  </si>
-  <si>
-    <t>診断結果番号8</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result7</t>
-  </si>
-  <si>
-    <t>診断結果番号7</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result6</t>
-  </si>
-  <si>
-    <t>診断結果番号6</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result5</t>
-  </si>
-  <si>
-    <t>診断結果番号5</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result4</t>
-  </si>
-  <si>
-    <t>診断結果番号4</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result3</t>
-  </si>
-  <si>
-    <t>診断結果番号3</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断結果番号2</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断結果番号1</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>admin_comment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,13 +285,6 @@
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断結果</t>
-    <rPh sb="0" eb="4">
-      <t>シンダンケッカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -471,17 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sindan_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断ID</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>三浦美帆</t>
     <rPh sb="0" eb="4">
       <t>ミウラミホ</t>
@@ -511,7 +332,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断項目1</t>
+    <t>管理者ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_login</t>
+  </si>
+  <si>
+    <t>頭胃が痛い</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規診断項目</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断項目ID</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
@@ -521,224 +379,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断項目2</t>
+    <t>診断結果ID</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目3</t>
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0610</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果テーブル</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目4</t>
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBBB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断回答テーブル</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目5</t>
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答結果</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断回答</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目6</t>
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <rPh sb="0" eb="4">
+      <t>シンダンケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
     <rPh sb="0" eb="2">
-      <t>シンダン</t>
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果</t>
+    <rPh sb="0" eb="4">
+      <t>シンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_loginテーブルから結合</t>
+    <rPh sb="16" eb="18">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師メモ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目7</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目8</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目9</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question3</t>
-  </si>
-  <si>
-    <t>question4</t>
-  </si>
-  <si>
-    <t>question5</t>
-  </si>
-  <si>
-    <t>question6</t>
-  </si>
-  <si>
-    <t>question7</t>
-  </si>
-  <si>
-    <t>question8</t>
-  </si>
-  <si>
-    <t>question9</t>
-  </si>
-  <si>
-    <t>診断項目10</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question10</t>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断結果</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin_login</t>
-  </si>
-  <si>
-    <t>診断項目11</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目12</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目13</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目14</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>診断項目15</t>
-    <rPh sb="0" eb="2">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question11</t>
-  </si>
-  <si>
-    <t>question12</t>
-  </si>
-  <si>
-    <t>question13</t>
-  </si>
-  <si>
-    <t>question14</t>
-  </si>
-  <si>
-    <t>question15</t>
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -779,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +580,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -829,13 +623,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +676,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,7 +1039,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -1323,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -1338,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -1593,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,12 +1561,8 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2111,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2130,7 +1958,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2180,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2247,12 +2075,8 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2629,8 +2453,541 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table s_question (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>question_id int (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question varchar (100)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L19" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2648,7 +3005,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2660,10 +3017,8 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -2678,36 +3033,30 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2742,7 +3091,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table question (</v>
+        <v>create table s_answer (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2750,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
@@ -2764,45 +3113,41 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>sindan_id int (10),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(s_result!C12&lt;&gt;"",",","")</f>
+        <v>result_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>76</v>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question1 varchar (100),</v>
+        <f>s_result!C12&amp;" "&amp;s_result!D12&amp;" "&amp;IF(s_result!E12&lt;&gt;"","("&amp;s_result!E12&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
+        <v>date date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2810,95 +3155,73 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>question2 varchar (100),</v>
+        <f>s_result!C11&amp;" "&amp;s_result!D11&amp;" "&amp;IF(s_result!E11&lt;&gt;"","("&amp;s_result!E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id  ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L19" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>question4 varchar (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>answer int (5)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>question5 varchar (100),</v>
+        <f t="shared" ref="L13:L22" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2906,25 +3229,17 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>question6 varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2932,25 +3247,17 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>question7 varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2958,25 +3265,17 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>question8 varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2984,25 +3283,17 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>question9 varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3010,151 +3301,103 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>question10 varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>question11 varchar (100),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>question12 varchar (100),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>question13 varchar (100),</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v>question14 varchar (100),</v>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3">
-        <v>100</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3162,7 +3405,7 @@
       <c r="J25" s="3"/>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>question15 varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -3249,12 +3492,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3272,7 +3515,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3284,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3310,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3324,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3366,7 +3609,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table result (</v>
+        <v>create table s_result (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3374,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
@@ -3391,68 +3634,64 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>sindan_id int (10),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>result_id int (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>date date (10),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>user_comment varchar (300),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id int (10),</v>
+      <c r="L12" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3460,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -3471,40 +3710,37 @@
       <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13:L22" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>result1 int (5),</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>result2 int (5),</v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3512,199 +3748,143 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>result3 int (5),</v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>result4 int (5),</v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>result5 int (5),</v>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>result6 int (5),</v>
+      <c r="L18" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>result7 int (5),</v>
+      <c r="L19" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>result8 int (5),</v>
+      <c r="L20" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>result9 int (5),</v>
+        <f t="shared" ref="L15:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3712,30 +3892,26 @@
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>result10 int (5)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -3751,7 +3927,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3769,7 +3945,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3787,7 +3963,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3805,7 +3981,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3823,7 +3999,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3841,7 +4017,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3857,522 +4033,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9137BD70-7088-41FD-80C8-A7AC9DFFB09E}">
+  <dimension ref="B4:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table comment (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="D17">
         <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>sindan_id int (10),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3">
-        <v>300</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_comment varchar (300),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>admin_comment varchar (300)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74E69C-8131-44DB-A2EC-ED9FAD5520BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79DFFF-7619-4E71-9027-2A686D9481DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="345" windowWidth="14250" windowHeight="10080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="345" windowWidth="11385" windowHeight="10080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -526,6 +526,10 @@
     <rPh sb="2" eb="4">
       <t>シツモン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(10)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1939,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2453,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2987,7 +2991,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,7 +3122,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(s_result!C12&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
         <v>result_id int (10),</v>
       </c>
     </row>
@@ -3146,8 +3150,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>s_result!C12&amp;" "&amp;s_result!D12&amp;" "&amp;IF(s_result!E12&lt;&gt;"","("&amp;s_result!E12&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
-        <v>date date (10),</v>
+        <f>s_result!C11&amp;" "&amp;s_result!D11&amp;" "&amp;IF(s_result!E11&lt;&gt;"","("&amp;s_result!E11&amp;")","")&amp;IF(s_result!C15&lt;&gt;"",",","")</f>
+        <v>date char(10) (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3174,7 +3178,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>s_result!C11&amp;" "&amp;s_result!D11&amp;" "&amp;IF(s_result!E11&lt;&gt;"","("&amp;s_result!E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>s_result!C15&amp;" "&amp;s_result!D15&amp;" "&amp;IF(s_result!E15&lt;&gt;"","("&amp;s_result!E15&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id  ,</v>
       </c>
     </row>
@@ -3497,7 +3501,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3638,7 +3642,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>result_id int (10),</v>
       </c>
     </row>
@@ -3646,23 +3650,27 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_comment varchar (300),</v>
       </c>
     </row>
@@ -3670,19 +3678,18 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>7</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>25</v>
@@ -3690,7 +3697,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3699,21 +3706,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
@@ -3722,10 +3728,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
@@ -3748,22 +3754,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4038,7 +4042,7 @@
   <dimension ref="B4:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79DFFF-7619-4E71-9027-2A686D9481DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925E118-0938-4887-A032-8D1C2FF77949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="345" windowWidth="11385" windowHeight="10080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="930" windowWidth="13320" windowHeight="9480" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -530,6 +530,30 @@
   </si>
   <si>
     <t>char(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（イメージ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断質問ID</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servletやmodelから受け取る</t>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +594,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -591,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -647,6 +679,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -696,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1943,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2457,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2990,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3103,27 +3148,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
-        <v>result_id int (10),</v>
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3131,20 +3174,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3159,27 +3200,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>s_result!C15&amp;" "&amp;s_result!D15&amp;" "&amp;IF(s_result!E15&lt;&gt;"","("&amp;s_result!E15&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <f>s_result!C15&amp;" "&amp;s_result!D15&amp;" "&amp;IF(s_result!E15&lt;&gt;"","("&amp;s_result!E15&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3196,7 +3233,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>answer int (5)</v>
       </c>
     </row>
@@ -3500,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3759,7 +3796,9 @@
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4039,25 +4078,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9137BD70-7088-41FD-80C8-A7AC9DFFB09E}">
-  <dimension ref="B4:G17"/>
+  <dimension ref="A4:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
@@ -4077,7 +4116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
         <v>1</v>
       </c>
@@ -4097,56 +4136,61 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="5">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925E118-0938-4887-A032-8D1C2FF77949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E65DF-EB91-4945-AA9E-E5550F17B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="930" windowWidth="13320" windowHeight="9480" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="570" windowWidth="14250" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="87">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2638,10 +2638,7 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table s_question (</v>
-      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -2668,10 +2665,6 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_id int (10),</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -2694,10 +2687,6 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question varchar (100)</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -2712,10 +2701,6 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -3035,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3138,10 +3123,7 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table s_answer (</v>
-      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -3164,10 +3146,6 @@
       <c r="J10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(s_result!C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -3190,10 +3168,6 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>s_result!C11&amp;" "&amp;s_result!D11&amp;" "&amp;IF(s_result!E11&lt;&gt;"","("&amp;s_result!E11&amp;")","")&amp;IF(s_result!C15&lt;&gt;"",",","")</f>
-        <v>date char(10) (10),</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -3214,28 +3188,30 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>s_result!C15&amp;" "&amp;s_result!D15&amp;" "&amp;IF(s_result!E15&lt;&gt;"","("&amp;s_result!E15&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>answer int (5)</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -3251,7 +3227,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L13:L22" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L14:L22" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3537,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L10:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3678,10 +3654,6 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>result_id int (10),</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -3706,10 +3678,6 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_comment varchar (300),</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -3733,10 +3701,6 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -3781,10 +3745,6 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -3806,10 +3766,6 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3825,10 +3781,6 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -3843,10 +3795,6 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -3861,10 +3809,6 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -3879,10 +3823,6 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -3897,10 +3837,6 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -3915,10 +3851,6 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" ref="L15:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -3933,10 +3865,6 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -3952,7 +3880,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L21:L29" si="0">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E65DF-EB91-4945-AA9E-E5550F17B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7593E-8CE5-428D-BAEF-6DA02D8427E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="570" windowWidth="14250" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -505,13 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_loginテーブルから結合</t>
-    <rPh sb="16" eb="18">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>講師メモ</t>
     <rPh sb="0" eb="2">
       <t>コウシ</t>
@@ -547,13 +540,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>servletやmodelから受け取る</t>
+    <t>Javabeansからデータを受け取る</t>
     <rPh sb="15" eb="16">
       <t>ウ</t>
     </rPh>
     <rPh sb="17" eb="18">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javabeansからデータを受け取る</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1474,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1988,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAB792-031A-4ED8-B020-287A599CB646}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2502,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2645,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>67</v>
@@ -3020,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6380EC-A632-465B-A7D9-3E954E097CE8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3130,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>67</v>
@@ -3200,7 +3197,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -3211,7 +3208,9 @@
         <v>25</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -3513,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L10:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3666,7 +3665,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3765,7 +3764,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3880,7 +3879,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" ref="L21:L29" si="0">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L23:L29" si="0">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4009,14 +4008,14 @@
   <dimension ref="A4:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -4118,7 +4117,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/DB定義書_ヨッシーアイランド.xlsx
+++ b/documnets/DB定義書_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7593E-8CE5-428D-BAEF-6DA02D8427E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3486F2-8292-46CE-8CD9-77BC547DBE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="14250" windowHeight="9645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1986,7 +1986,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2499,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192EBB3F-294B-435D-8D8F-A67C5EF4A26E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3512,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4354D-1C55-48E3-BD47-689FB27D3F96}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
